--- a/biology/Botanique/Glycine_(genre)/Glycine_(genre).xlsx
+++ b/biology/Botanique/Glycine_(genre)/Glycine_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glycine est un genre de plantes de la famille des Fabaceae. L'espèce la plus connue est le soja (Glycine max). Bien que la majorité des espèces poussent uniquement en Australie, l'aire d'origine du soja est l'est de l'Asie. Quelques espèces s'étendent de l'Australie vers l'Asie orientale (par exemple, G. tomentella et G. tabacina)
 Les espèces de Glycine sont utilisées comme plantes alimentaires par les chenilles de certaines espèces de lépidoptères : celles d'Ectropis crepuscularia, Hadula trifolii et de la Noctuelle des moissons se nourrissent sur le soja.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Glycine albicans Tindale &amp; Craven
@@ -569,9 +583,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (18 janv. 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (18 janv. 2011) :
 Glycine albicans
 Glycine aphyonota
 Glycine arenaria
